--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/90.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/90.xlsx
@@ -479,13 +479,13 @@
         <v>-9.903523670412049</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.597497067986732</v>
+        <v>-9.433245993285857</v>
       </c>
       <c r="F2" t="n">
-        <v>2.280706901691287</v>
+        <v>2.571289913833244</v>
       </c>
       <c r="G2" t="n">
-        <v>-14.60454411669647</v>
+        <v>-14.80985796007257</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-9.291749466790227</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.14905037767774</v>
+        <v>-9.989179853129622</v>
       </c>
       <c r="F3" t="n">
-        <v>2.367550330668297</v>
+        <v>2.661892989090912</v>
       </c>
       <c r="G3" t="n">
-        <v>-14.30236926927306</v>
+        <v>-14.53541844860516</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-8.613207230007216</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.24947546773104</v>
+        <v>-10.07516281689806</v>
       </c>
       <c r="F4" t="n">
-        <v>2.255205841873459</v>
+        <v>2.576570041249512</v>
       </c>
       <c r="G4" t="n">
-        <v>-13.71390884674371</v>
+        <v>-13.93436394438664</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-7.924422387111293</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.83186374373168</v>
+        <v>-10.69263460617568</v>
       </c>
       <c r="F5" t="n">
-        <v>2.56129678379727</v>
+        <v>2.879561352819699</v>
       </c>
       <c r="G5" t="n">
-        <v>-13.21695596574241</v>
+        <v>-13.40674721231604</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-7.217081064042564</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.35519770578686</v>
+        <v>-11.22471500151577</v>
       </c>
       <c r="F6" t="n">
-        <v>2.54850714183342</v>
+        <v>2.861017349773491</v>
       </c>
       <c r="G6" t="n">
-        <v>-12.95516920404658</v>
+        <v>-13.13172102002461</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-6.497000755485116</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.33352220290461</v>
+        <v>-12.19051875204735</v>
       </c>
       <c r="F7" t="n">
-        <v>2.642253848506515</v>
+        <v>2.963368708532355</v>
       </c>
       <c r="G7" t="n">
-        <v>-12.48250490916011</v>
+        <v>-12.64717154944467</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-5.765148665857931</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.07661702362761</v>
+        <v>-12.97340519966017</v>
       </c>
       <c r="F8" t="n">
-        <v>2.846379663213947</v>
+        <v>3.186370978752947</v>
       </c>
       <c r="G8" t="n">
-        <v>-12.0739941623813</v>
+        <v>-12.23333667418779</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-5.032712087284373</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.79968158321687</v>
+        <v>-13.69891426268288</v>
       </c>
       <c r="F9" t="n">
-        <v>3.004705261592121</v>
+        <v>3.343371656270187</v>
       </c>
       <c r="G9" t="n">
-        <v>-11.9926019760609</v>
+        <v>-12.16052958392569</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-4.296032092955185</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.78404400381526</v>
+        <v>-14.69640366671894</v>
       </c>
       <c r="F10" t="n">
-        <v>3.318687060599133</v>
+        <v>3.669326633094273</v>
       </c>
       <c r="G10" t="n">
-        <v>-11.57673327394738</v>
+        <v>-11.67786238098951</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-3.567427166221786</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.5009484147522</v>
+        <v>-15.40947020726535</v>
       </c>
       <c r="F11" t="n">
-        <v>3.386526919884445</v>
+        <v>3.744778676071371</v>
       </c>
       <c r="G11" t="n">
-        <v>-10.98253315735627</v>
+        <v>-11.08716768232198</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-2.852754840416458</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.62827028514604</v>
+        <v>-16.56090954853369</v>
       </c>
       <c r="F12" t="n">
-        <v>3.675697009041863</v>
+        <v>4.024640096154184</v>
       </c>
       <c r="G12" t="n">
-        <v>-10.51499254166633</v>
+        <v>-10.61370647931621</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-2.153702358938309</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.51122003630402</v>
+        <v>-17.43403728489603</v>
       </c>
       <c r="F13" t="n">
-        <v>4.033406085466562</v>
+        <v>4.389052000993424</v>
       </c>
       <c r="G13" t="n">
-        <v>-9.970195839465392</v>
+        <v>-10.02938215659626</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-1.489295562320782</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.91917090085879</v>
+        <v>-18.8721630998334</v>
       </c>
       <c r="F14" t="n">
-        <v>4.092318618212888</v>
+        <v>4.45311265797061</v>
       </c>
       <c r="G14" t="n">
-        <v>-9.483382758706069</v>
+        <v>-9.534047536867909</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.8704768750478864</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.68997661250346</v>
+        <v>-19.62983205002667</v>
       </c>
       <c r="F15" t="n">
-        <v>4.268264197339422</v>
+        <v>4.633042777693681</v>
       </c>
       <c r="G15" t="n">
-        <v>-8.88216202825407</v>
+        <v>-8.915270382756818</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.3111075483216908</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.90797000425112</v>
+        <v>-20.87963820945735</v>
       </c>
       <c r="F16" t="n">
-        <v>4.223564007555219</v>
+        <v>4.566263832898489</v>
       </c>
       <c r="G16" t="n">
-        <v>-8.637662794839654</v>
+        <v>-8.681830082875363</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.1705761297206853</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.23885056455584</v>
+        <v>-22.21359884408822</v>
       </c>
       <c r="F17" t="n">
-        <v>4.607131041299032</v>
+        <v>4.944325844910155</v>
       </c>
       <c r="G17" t="n">
-        <v>-8.358016491058986</v>
+        <v>-8.389638587474192</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.5691778379252606</v>
       </c>
       <c r="E18" t="n">
-        <v>-23.13099653763048</v>
+        <v>-23.09923266001613</v>
       </c>
       <c r="F18" t="n">
-        <v>4.711403779756593</v>
+        <v>5.043367346020118</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.918690333998009</v>
+        <v>-7.917952093961104</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.8808004494983972</v>
       </c>
       <c r="E19" t="n">
-        <v>-24.20935989325904</v>
+        <v>-24.14020000211966</v>
       </c>
       <c r="F19" t="n">
-        <v>4.86519237976227</v>
+        <v>5.186033455403563</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.335505149878059</v>
+        <v>-7.320456786741695</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.10813137333099</v>
       </c>
       <c r="E20" t="n">
-        <v>-25.11622177700309</v>
+        <v>-25.0591083987838</v>
       </c>
       <c r="F20" t="n">
-        <v>5.118565160640137</v>
+        <v>5.421101794571701</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.946139753990086</v>
+        <v>-6.893001138353587</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.262421724520848</v>
       </c>
       <c r="E21" t="n">
-        <v>-25.95760030277169</v>
+        <v>-25.86811681008654</v>
       </c>
       <c r="F21" t="n">
-        <v>5.249531876591055</v>
+        <v>5.517332116733188</v>
       </c>
       <c r="G21" t="n">
-        <v>-6.395574023686192</v>
+        <v>-6.315154749732309</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.351097526772075</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.56087930511466</v>
+        <v>-26.4481461402739</v>
       </c>
       <c r="F22" t="n">
-        <v>5.248387848984197</v>
+        <v>5.526186108169171</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.175950057210639</v>
+        <v>-6.069672825937642</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.38461762813485</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.1970417676445</v>
+        <v>-27.11533424038118</v>
       </c>
       <c r="F23" t="n">
-        <v>5.232831029133673</v>
+        <v>5.495140914564261</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.760956487326298</v>
+        <v>-5.613577375323146</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.371810561213275</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.59691608379291</v>
+        <v>-27.4759302753608</v>
       </c>
       <c r="F24" t="n">
-        <v>5.386732076297289</v>
+        <v>5.644759191712459</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.495028736814193</v>
+        <v>-5.337441378472923</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.316565819861922</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.84410671548756</v>
+        <v>-27.73717680179783</v>
       </c>
       <c r="F25" t="n">
-        <v>5.106670206932933</v>
+        <v>5.361876365385894</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.074007021462945</v>
+        <v>-4.902554439647105</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.224180823761108</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.92772339993241</v>
+        <v>-27.80565712098271</v>
       </c>
       <c r="F26" t="n">
-        <v>5.357706042528415</v>
+        <v>5.561690076036707</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.763300857056766</v>
+        <v>-4.576716798987825</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.096728753141175</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.16758541033355</v>
+        <v>-28.0464358201714</v>
       </c>
       <c r="F27" t="n">
-        <v>5.277022762203718</v>
+        <v>5.484355765415847</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.597778640570494</v>
+        <v>-4.401988582571151</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.9366416647324735</v>
       </c>
       <c r="E28" t="n">
-        <v>-27.9543978213983</v>
+        <v>-27.83046394182544</v>
       </c>
       <c r="F28" t="n">
-        <v>5.242115253173945</v>
+        <v>5.422558718618042</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.351680701910596</v>
+        <v>-4.169892759578098</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.7451565513614191</v>
       </c>
       <c r="E29" t="n">
-        <v>-28.02710224251619</v>
+        <v>-27.88671196582929</v>
       </c>
       <c r="F29" t="n">
-        <v>5.22621131383587</v>
+        <v>5.404581840368396</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.912897224611847</v>
+        <v>-3.692368791865914</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.520026977431439</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.73689079489612</v>
+        <v>-27.5922250817041</v>
       </c>
       <c r="F30" t="n">
-        <v>5.185637445847343</v>
+        <v>5.378694549008081</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.057773165099137</v>
+        <v>-3.873354937072238</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.261329314215245</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.66498328189753</v>
+        <v>-27.51030732714551</v>
       </c>
       <c r="F31" t="n">
-        <v>5.297361030770084</v>
+        <v>5.511250192190746</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.276932675922334</v>
+        <v>-4.128903326005883</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-0.03496471985552208</v>
       </c>
       <c r="E32" t="n">
-        <v>-27.19886781170929</v>
+        <v>-27.05041067369199</v>
       </c>
       <c r="F32" t="n">
-        <v>5.298245941012995</v>
+        <v>5.507896333480042</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.152781235543896</v>
+        <v>-3.993257830483328</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-0.3720077710961746</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.8163176913938</v>
+        <v>-26.66403735000657</v>
       </c>
       <c r="F33" t="n">
-        <v>5.045239835650147</v>
+        <v>5.260991708687103</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.004321653023156</v>
+        <v>-3.85920126219252</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-0.7476884388464692</v>
       </c>
       <c r="E34" t="n">
-        <v>-26.47188715761964</v>
+        <v>-26.32052594952339</v>
       </c>
       <c r="F34" t="n">
-        <v>5.162849784840652</v>
+        <v>5.393141564299815</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.90370100269518</v>
+        <v>-3.766671918229287</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-1.165641624620556</v>
       </c>
       <c r="E35" t="n">
-        <v>-26.23282694434467</v>
+        <v>-26.1134373966546</v>
       </c>
       <c r="F35" t="n">
-        <v>5.305926570800919</v>
+        <v>5.546030587041979</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.220899768220622</v>
+        <v>-4.105299200852418</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-1.621838262889355</v>
       </c>
       <c r="E36" t="n">
-        <v>-25.56640152930862</v>
+        <v>-25.43830954939545</v>
       </c>
       <c r="F36" t="n">
-        <v>5.363147507171291</v>
+        <v>5.621174622586461</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.37039093119028</v>
+        <v>-4.272361454501768</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-2.107530759690727</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.98622308441183</v>
+        <v>-24.85311987246007</v>
       </c>
       <c r="F37" t="n">
-        <v>5.36871119698584</v>
+        <v>5.624875600784716</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.499465601483701</v>
+        <v>-4.409586099242337</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-2.617241048850781</v>
       </c>
       <c r="E38" t="n">
-        <v>-24.42718470520757</v>
+        <v>-24.3083427262866</v>
       </c>
       <c r="F38" t="n">
-        <v>5.197967521165703</v>
+        <v>5.443092547459084</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.420811259008774</v>
+        <v>-4.361155597218677</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-3.13691537823504</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.8745020349303</v>
+        <v>-23.75960548455094</v>
       </c>
       <c r="F39" t="n">
-        <v>5.158571903832102</v>
+        <v>5.410854436178647</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.622081893705928</v>
+        <v>-4.5663912164849</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-3.653244188228972</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.24871893397892</v>
+        <v>-23.12634709210004</v>
       </c>
       <c r="F40" t="n">
-        <v>5.230660310084763</v>
+        <v>5.479408090466529</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.381068522187622</v>
+        <v>-4.345681890484892</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-4.156513718044272</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.66596398246326</v>
+        <v>-22.54288323458868</v>
       </c>
       <c r="F41" t="n">
-        <v>5.3246074660394</v>
+        <v>5.591840581384972</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.709482669465767</v>
+        <v>-4.707287505382522</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-4.630404938593768</v>
       </c>
       <c r="E42" t="n">
-        <v>-22.0602160316525</v>
+        <v>-21.94360832886971</v>
       </c>
       <c r="F42" t="n">
-        <v>5.273165335785722</v>
+        <v>5.540843350756182</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.6484336407186</v>
+        <v>-4.660177035212929</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-5.068484330930429</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.48146028775398</v>
+        <v>-21.350606018961</v>
       </c>
       <c r="F43" t="n">
-        <v>5.165954304201144</v>
+        <v>5.427037048908136</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.91414627492856</v>
+        <v>-4.952075190202087</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-5.466370327588229</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.67167452435939</v>
+        <v>-20.54431100646938</v>
       </c>
       <c r="F44" t="n">
-        <v>5.223488137010999</v>
+        <v>5.492740412192606</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.045929455026252</v>
+        <v>-5.094721743558064</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-5.815407849025628</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.00149435204955</v>
+        <v>-19.8646950509064</v>
       </c>
       <c r="F45" t="n">
-        <v>5.231574554368876</v>
+        <v>5.50686964203799</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.155081422336996</v>
+        <v>-5.207687136225001</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-6.119590028367464</v>
       </c>
       <c r="E46" t="n">
-        <v>-19.42841963413038</v>
+        <v>-19.28917582955378</v>
       </c>
       <c r="F46" t="n">
-        <v>5.311641819828342</v>
+        <v>5.605324462323924</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.035999882079548</v>
+        <v>-5.111706153413726</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-6.379814805156709</v>
       </c>
       <c r="E47" t="n">
-        <v>-18.81150030262872</v>
+        <v>-18.68335943264688</v>
       </c>
       <c r="F47" t="n">
-        <v>5.375071794919696</v>
+        <v>5.656883928742408</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.26787569976359</v>
+        <v>-5.369097697936198</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-6.59483884644904</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.05101039547323</v>
+        <v>-17.90511754155762</v>
       </c>
       <c r="F48" t="n">
-        <v>5.366354695675987</v>
+        <v>5.658023067342399</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.324270393973454</v>
+        <v>-5.4301858387383</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-6.77420172724645</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.42345747403603</v>
+        <v>-17.26967865204409</v>
       </c>
       <c r="F49" t="n">
-        <v>5.144716458371265</v>
+        <v>5.449795375873625</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.419337132500615</v>
+        <v>-5.550802527151959</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-6.920870611545634</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.88439557688999</v>
+        <v>-16.74983544089189</v>
       </c>
       <c r="F50" t="n">
-        <v>5.21675108554839</v>
+        <v>5.526269221285909</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.748944197454287</v>
+        <v>-5.896245085347569</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-7.039718119399706</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.38815160188438</v>
+        <v>-16.26155076906562</v>
       </c>
       <c r="F51" t="n">
-        <v>5.168403696641468</v>
+        <v>5.494608012815767</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.840324624803795</v>
+        <v>-5.967629474611393</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-7.144565748038906</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.63874507329619</v>
+        <v>-15.49324333992994</v>
       </c>
       <c r="F52" t="n">
-        <v>5.199825343775131</v>
+        <v>5.523854051893652</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.18233510017883</v>
+        <v>-6.31683167908766</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-7.235974442121123</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.27295446852048</v>
+        <v>-15.16265358459602</v>
       </c>
       <c r="F53" t="n">
-        <v>5.356229562454606</v>
+        <v>5.680771616294154</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.549856413385427</v>
+        <v>-6.708001118509525</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-7.32322461082228</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.69006751381942</v>
+        <v>-14.56990061403751</v>
       </c>
       <c r="F54" t="n">
-        <v>5.316926836251477</v>
+        <v>5.671311388006674</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.772404005967396</v>
+        <v>-6.905370325726881</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.417830048312101</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.26595105712141</v>
+        <v>-14.15330344990083</v>
       </c>
       <c r="F55" t="n">
-        <v>5.21478570478789</v>
+        <v>5.567209764789454</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.205482012252456</v>
+        <v>-7.375198996630542</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-7.516580841290495</v>
       </c>
       <c r="E56" t="n">
-        <v>-13.90052712786072</v>
+        <v>-13.78864709471824</v>
       </c>
       <c r="F56" t="n">
-        <v>4.962967628093702</v>
+        <v>5.300157542697959</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.398847122845809</v>
+        <v>-7.578366565992059</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-7.628420263454538</v>
       </c>
       <c r="E57" t="n">
-        <v>-13.45994449603495</v>
+        <v>-13.35368682078942</v>
       </c>
       <c r="F57" t="n">
-        <v>4.991700321450561</v>
+        <v>5.329555140988719</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.862432531980418</v>
+        <v>-8.039409691555873</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-7.756043003474251</v>
       </c>
       <c r="E58" t="n">
-        <v>-13.09766419818968</v>
+        <v>-13.00828337464874</v>
       </c>
       <c r="F58" t="n">
-        <v>4.895166880863325</v>
+        <v>5.236033328631502</v>
       </c>
       <c r="G58" t="n">
-        <v>-8.250893461598013</v>
+        <v>-8.427983068331406</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-7.892962493677374</v>
       </c>
       <c r="E59" t="n">
-        <v>-12.81020037242882</v>
+        <v>-12.71182377625276</v>
       </c>
       <c r="F59" t="n">
-        <v>4.869675599059231</v>
+        <v>5.203995666632609</v>
       </c>
       <c r="G59" t="n">
-        <v>-8.257175835421998</v>
+        <v>-8.418429948913454</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.045341255631552</v>
       </c>
       <c r="E60" t="n">
-        <v>-12.2421271085345</v>
+        <v>-12.1449532080477</v>
       </c>
       <c r="F60" t="n">
-        <v>4.858284213059319</v>
+        <v>5.196168366638678</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.52521563690061</v>
+        <v>-8.689188038210071</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.205339824382007</v>
       </c>
       <c r="E61" t="n">
-        <v>-12.0162452132693</v>
+        <v>-11.90799282322207</v>
       </c>
       <c r="F61" t="n">
-        <v>4.692493101195367</v>
+        <v>5.014903548040939</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.788151315210163</v>
+        <v>-8.959349668668924</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.364528289580266</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.80526989994132</v>
+        <v>-11.68502966505641</v>
       </c>
       <c r="F62" t="n">
-        <v>4.62797287757269</v>
+        <v>4.955321221353847</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.888395512009387</v>
+        <v>-9.066653591383973</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.52507840384124</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.73834428494012</v>
+        <v>-11.62845896659934</v>
       </c>
       <c r="F63" t="n">
-        <v>4.55228616226598</v>
+        <v>4.87124497026351</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.970164151858539</v>
+        <v>-9.162575906112844</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.670713716691585</v>
       </c>
       <c r="E64" t="n">
-        <v>-11.74512044845766</v>
+        <v>-11.63004789383108</v>
       </c>
       <c r="F64" t="n">
-        <v>4.487673047512831</v>
+        <v>4.811075962752389</v>
       </c>
       <c r="G64" t="n">
-        <v>-9.095122278370019</v>
+        <v>-9.290897669348761</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-8.797737441131236</v>
       </c>
       <c r="E65" t="n">
-        <v>-11.7065021832159</v>
+        <v>-11.60573975168878</v>
       </c>
       <c r="F65" t="n">
-        <v>4.575142269368807</v>
+        <v>4.902177716710481</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.129183989211816</v>
+        <v>-9.335172515535543</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.905299482807306</v>
       </c>
       <c r="E66" t="n">
-        <v>-11.5982009031</v>
+        <v>-11.5004354327823</v>
       </c>
       <c r="F66" t="n">
-        <v>4.421759456933084</v>
+        <v>4.746922414644731</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.276054644500807</v>
+        <v>-9.483309423603066</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-8.980704601119958</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.82355967463045</v>
+        <v>-11.73229658344574</v>
       </c>
       <c r="F67" t="n">
-        <v>4.337751651938885</v>
+        <v>4.659052294225668</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.445556512576749</v>
+        <v>-9.664628021276341</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.026280494574475</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.62920209564311</v>
+        <v>-11.53670697472795</v>
       </c>
       <c r="F68" t="n">
-        <v>4.310783890060982</v>
+        <v>4.644067488178574</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.601623389782407</v>
+        <v>-9.804536730786845</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.039573864399392</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.79141934348735</v>
+        <v>-11.71222721025706</v>
       </c>
       <c r="F69" t="n">
-        <v>4.320757464069488</v>
+        <v>4.668165403025598</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.62791157970581</v>
+        <v>-9.835278805966006</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.01236522666413</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.85327505836755</v>
+        <v>-11.76978059909438</v>
       </c>
       <c r="F70" t="n">
-        <v>4.430090324634307</v>
+        <v>4.78322817963844</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.639694086255075</v>
+        <v>-9.819482424779004</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-8.950497832780394</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.16491013407845</v>
+        <v>-12.07389638224396</v>
       </c>
       <c r="F71" t="n">
-        <v>4.247549475244304</v>
+        <v>4.597504586778076</v>
       </c>
       <c r="G71" t="n">
-        <v>-9.503794362375439</v>
+        <v>-9.677711003652204</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-8.848689519449424</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.30102986326709</v>
+        <v>-12.1843488253813</v>
       </c>
       <c r="F72" t="n">
-        <v>4.060505850529871</v>
+        <v>4.399485141647419</v>
       </c>
       <c r="G72" t="n">
-        <v>-9.467156144914778</v>
+        <v>-9.660966155133021</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-8.702577411045398</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.44857031249685</v>
+        <v>-12.33225106111921</v>
       </c>
       <c r="F73" t="n">
-        <v>4.113791136372377</v>
+        <v>4.470302406114683</v>
       </c>
       <c r="G73" t="n">
-        <v>-9.328841251642888</v>
+        <v>-9.519536964486905</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-8.519595993746876</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.68667961393621</v>
+        <v>-12.58114551170699</v>
       </c>
       <c r="F74" t="n">
-        <v>4.061566765019992</v>
+        <v>4.419339398533961</v>
       </c>
       <c r="G74" t="n">
-        <v>-9.31560671005415</v>
+        <v>-9.511846556685247</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-8.292987100545647</v>
       </c>
       <c r="E75" t="n">
-        <v>-13.21340165775016</v>
+        <v>-13.11678999305305</v>
       </c>
       <c r="F75" t="n">
-        <v>4.125226523434092</v>
+        <v>4.48068665670001</v>
       </c>
       <c r="G75" t="n">
-        <v>-9.311915509869628</v>
+        <v>-9.521257894904059</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-8.024736613589532</v>
       </c>
       <c r="E76" t="n">
-        <v>-13.29248623282938</v>
+        <v>-13.18620411254951</v>
       </c>
       <c r="F76" t="n">
-        <v>4.070973214231937</v>
+        <v>4.424560857867826</v>
       </c>
       <c r="G76" t="n">
-        <v>-9.241616480130258</v>
+        <v>-9.416740706103152</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-7.721641723712652</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.78591413987963</v>
+        <v>-13.69684132377131</v>
       </c>
       <c r="F77" t="n">
-        <v>4.115820074222148</v>
+        <v>4.475954098052837</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.038991590530967</v>
+        <v>-9.220124405943301</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-7.380424797097967</v>
       </c>
       <c r="E78" t="n">
-        <v>-14.09057749179831</v>
+        <v>-13.99615121317071</v>
       </c>
       <c r="F78" t="n">
-        <v>4.086774484425805</v>
+        <v>4.442146615568119</v>
       </c>
       <c r="G78" t="n">
-        <v>-8.920144722603133</v>
+        <v>-9.094442706415517</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-7.010253812058809</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.3215439542051</v>
+        <v>-14.20294642562748</v>
       </c>
       <c r="F79" t="n">
-        <v>4.1844666196405</v>
+        <v>4.563574879121686</v>
       </c>
       <c r="G79" t="n">
-        <v>-8.809511386211714</v>
+        <v>-9.007521053328636</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-6.61768284736103</v>
       </c>
       <c r="E80" t="n">
-        <v>-15.04049685901928</v>
+        <v>-14.92985374461413</v>
       </c>
       <c r="F80" t="n">
-        <v>4.071628341152103</v>
+        <v>4.448507213501975</v>
       </c>
       <c r="G80" t="n">
-        <v>-8.815788871028833</v>
+        <v>-9.031149623516436</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-6.203601578311694</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.63937086617516</v>
+        <v>-15.52776461741722</v>
       </c>
       <c r="F81" t="n">
-        <v>4.11868503224616</v>
+        <v>4.507879312893791</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.477992719573079</v>
+        <v>-8.687163989367168</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-5.782337058796782</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.42940993083428</v>
+        <v>-16.35315609073101</v>
       </c>
       <c r="F82" t="n">
-        <v>4.134632972646036</v>
+        <v>4.527210446045572</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.453396126025629</v>
+        <v>-8.666825720800801</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-5.358857308269386</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.19247634460863</v>
+        <v>-17.09441753387892</v>
       </c>
       <c r="F83" t="n">
-        <v>4.155245025596949</v>
+        <v>4.56857633314654</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.469319621391172</v>
+        <v>-8.693940152884712</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-4.936821886887735</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.31740260163769</v>
+        <v>-18.24547553261164</v>
       </c>
       <c r="F84" t="n">
-        <v>4.174923278236283</v>
+        <v>4.583585584227968</v>
       </c>
       <c r="G84" t="n">
-        <v>-8.333605679772479</v>
+        <v>-8.54981223044806</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-4.531476362720146</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.41316593270561</v>
+        <v>-19.34249044943748</v>
       </c>
       <c r="F85" t="n">
-        <v>4.380897137539409</v>
+        <v>4.791979501930219</v>
       </c>
       <c r="G85" t="n">
-        <v>-8.234036165920889</v>
+        <v>-8.450281828651404</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-4.144447937658366</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.56431193356193</v>
+        <v>-20.49785077421309</v>
       </c>
       <c r="F86" t="n">
-        <v>4.376325916118843</v>
+        <v>4.814537379614164</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.925505609570488</v>
+        <v>-8.123969954326034</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.783763533620268</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.48530793615824</v>
+        <v>-21.43572362851399</v>
       </c>
       <c r="F87" t="n">
-        <v>4.443965326122612</v>
+        <v>4.896829143198077</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.767522241672999</v>
+        <v>-7.967106169001068</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.459955125580188</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.93635539624486</v>
+        <v>-22.87603971852773</v>
       </c>
       <c r="F88" t="n">
-        <v>4.522424108322863</v>
+        <v>4.965925477248185</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.790265901617887</v>
+        <v>-7.984779928824965</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.175035370931095</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.46677588281585</v>
+        <v>-24.42175301857843</v>
       </c>
       <c r="F89" t="n">
-        <v>4.337023189915715</v>
+        <v>4.775439991699446</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.313196611544326</v>
+        <v>-7.509622240436368</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-2.942093305921909</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.00734594764255</v>
+        <v>-25.96330088477851</v>
       </c>
       <c r="F90" t="n">
-        <v>4.560617029967203</v>
+        <v>5.000446754735472</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.411152753129834</v>
+        <v>-7.589894844184244</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-2.768472863899509</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.8803782574332</v>
+        <v>-27.8651441120359</v>
       </c>
       <c r="F91" t="n">
-        <v>4.441941277279709</v>
+        <v>4.864991930480726</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.086214689734065</v>
+        <v>-7.272212066978978</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-2.657970227305532</v>
       </c>
       <c r="E92" t="n">
-        <v>-29.6125118338228</v>
+        <v>-29.60367250940742</v>
       </c>
       <c r="F92" t="n">
-        <v>4.464900053526741</v>
+        <v>4.888723169812732</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.094878009902239</v>
+        <v>-7.282034081774611</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-2.62294220606418</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.30456044291056</v>
+        <v>-31.30894832657362</v>
       </c>
       <c r="F93" t="n">
-        <v>4.536924902690132</v>
+        <v>4.961217363635346</v>
       </c>
       <c r="G93" t="n">
-        <v>-7.096589162305659</v>
+        <v>-7.261060242315545</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.661137654496875</v>
       </c>
       <c r="E94" t="n">
-        <v>-33.52304508891056</v>
+        <v>-33.51944922435994</v>
       </c>
       <c r="F94" t="n">
-        <v>4.437301609763007</v>
+        <v>4.826383443252699</v>
       </c>
       <c r="G94" t="n">
-        <v>-6.796325916567211</v>
+        <v>-6.936092844878575</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.771238251263808</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.70485729440183</v>
+        <v>-35.71868096131803</v>
       </c>
       <c r="F95" t="n">
-        <v>4.398013550580478</v>
+        <v>4.783091287446167</v>
       </c>
       <c r="G95" t="n">
-        <v>-6.565584348476293</v>
+        <v>-6.68366853133289</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-2.955976937242367</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.90542373023457</v>
+        <v>-37.92400195632885</v>
       </c>
       <c r="F96" t="n">
-        <v>4.386763945779707</v>
+        <v>4.765212189333859</v>
       </c>
       <c r="G96" t="n">
-        <v>-6.336333927479784</v>
+        <v>-6.410705499939295</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.197007478346972</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.38833520163853</v>
+        <v>-40.41046284671819</v>
       </c>
       <c r="F97" t="n">
-        <v>4.051661637107623</v>
+        <v>4.425440879103872</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.283693990543711</v>
+        <v>-6.340558029412799</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-3.497263176615516</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.47283661445073</v>
+        <v>-42.51136198856202</v>
       </c>
       <c r="F98" t="n">
-        <v>4.0912528147159</v>
+        <v>4.437976292710641</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.198581269997589</v>
+        <v>-6.228169539556157</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-3.830235884759689</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.95401982192723</v>
+        <v>-45.00986939187143</v>
       </c>
       <c r="F99" t="n">
-        <v>3.626014921260273</v>
+        <v>3.961175898014761</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.788491374000762</v>
+        <v>-5.79060342496727</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.205092020111608</v>
       </c>
       <c r="E100" t="n">
-        <v>-47.51278301261966</v>
+        <v>-47.60007500797671</v>
       </c>
       <c r="F100" t="n">
-        <v>3.373566162680253</v>
+        <v>3.671648911356058</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.802835720148291</v>
+        <v>-5.752522950480869</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.578233134133086</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.65538660528998</v>
+        <v>-49.74450097795668</v>
       </c>
       <c r="F101" t="n">
-        <v>3.405486488514341</v>
+        <v>3.681514927213492</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.860765562514366</v>
+        <v>-5.800440106783503</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-5.001805870011528</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.81503694265352</v>
+        <v>-51.89596956232843</v>
       </c>
       <c r="F102" t="n">
-        <v>3.064096917011404</v>
+        <v>3.332752733355247</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.835318281772074</v>
+        <v>-5.729573952247571</v>
       </c>
     </row>
   </sheetData>
